--- a/db/INV-3021-Reference.xlsx
+++ b/db/INV-3021-Reference.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.8_FinTech/FinTech-Investment/db/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.8_FinTech/FinTech-InvestmentB/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BE9CF0-A9ED-934E-BCCD-72711A49CB01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD2A3FB-9527-F340-8700-E1FDA0253D93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="21300" windowWidth="50040" windowHeight="28300" xr2:uid="{31A0BC85-4FFE-3145-8CB2-845FF6604531}"/>
+    <workbookView xWindow="6160" yWindow="2340" windowWidth="50040" windowHeight="28300" xr2:uid="{31A0BC85-4FFE-3145-8CB2-845FF6604531}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -832,10 +832,10 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="11" ySplit="1" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
